--- a/PR Team Daily Work Sheet 28th Feb- 4th March 2022 (1)/Applied/Applied Industrial Printing Pty Ltd- Offsite SEO - v2 - onsite offsite report   14th Feb.- 18th Feb.2022.xlsx
+++ b/PR Team Daily Work Sheet 28th Feb- 4th March 2022 (1)/Applied/Applied Industrial Printing Pty Ltd- Offsite SEO - v2 - onsite offsite report   14th Feb.- 18th Feb.2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\seo\PR Team Daily Work Sheet 7th Mar.- 11th March 2022\Applied\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\seo\PR Team Daily Work Sheet 28th Feb- 4th March 2022 (1)\Applied\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,8 +24,7 @@
     <sheet name="Forum Creation" sheetId="19" state="hidden" r:id="rId10"/>
     <sheet name="Web 2.0" sheetId="28" r:id="rId11"/>
     <sheet name="Social Link " sheetId="32" r:id="rId12"/>
-    <sheet name="Sheet1" sheetId="35" r:id="rId13"/>
-    <sheet name="Status" sheetId="21" r:id="rId14"/>
+    <sheet name="Status" sheetId="21" r:id="rId13"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="185">
   <si>
     <t>CLICK BELOW</t>
   </si>
@@ -505,6 +504,99 @@
   <si>
     <t>https://www.businesslistings.net.au/Industrial_Printin/VIC/Dandenong_South/Applied_Industrial_Printing_Pty_Ltd/709792.aspx</t>
   </si>
+  <si>
+    <t>http://www.localbd.com.au/</t>
+  </si>
+  <si>
+    <t>http://www.localbd.com.au/company/Applied-Industrial-Printing-Pty-Ltd_1378509/</t>
+  </si>
+  <si>
+    <t>zxPu736W_LVGp_y</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/australia/</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/user/AppliedIndustrialPri/comments/tb3178/professional_industrial_coding_and_marking/?utm_source=share&amp;utm_medium=web2x&amp;context=3</t>
+  </si>
+  <si>
+    <t>AppliedIndustrialPri</t>
+  </si>
+  <si>
+    <t>https://appliedindustrialprinting.tumblr.com/</t>
+  </si>
+  <si>
+    <t>https://www.tumblr.com/</t>
+  </si>
+  <si>
+    <t>https://appliedindustrialprinting.tumblr.com/post/678364555481677824/applied-industrial-printing-pty-ltd-printing</t>
+  </si>
+  <si>
+    <t>https://www.blurb.com/</t>
+  </si>
+  <si>
+    <t>https://au.blurb.com/user/AppliedIndus?profile_preview=true</t>
+  </si>
+  <si>
+    <t>AppliedIndus</t>
+  </si>
+  <si>
+    <t>https://www.livejournal.com/</t>
+  </si>
+  <si>
+    <t>https://appliedindustri.livejournal.com/304.html</t>
+  </si>
+  <si>
+    <t>appliedindustri</t>
+  </si>
+  <si>
+    <t>https://500px.com/</t>
+  </si>
+  <si>
+    <t>https://500px.com/photo/1045305099/applied-industrial-printing-pty-ltd-by-jone-doe</t>
+  </si>
+  <si>
+    <t>https://www.pearltrees.com/</t>
+  </si>
+  <si>
+    <t>https://www.pearltrees.com/appliedindustrialprinting/item433729136</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s450/sh/5288476b-a8df-2fb9-e02e-d0fc7c1f9fe5/217be187915d73124a88c5542aa46a4c</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com</t>
+  </si>
+  <si>
+    <t>https://telegra.ph/</t>
+  </si>
+  <si>
+    <t>https://telegra.ph/About-Applied-Industrial-Printing-03-11</t>
+  </si>
+  <si>
+    <t>http://www.oakey.com.au/</t>
+  </si>
+  <si>
+    <t>http://www.oakey.com.au/dandenong-south-vic/other/applied-industrial-printing-pty-ltd</t>
+  </si>
+  <si>
+    <t>https://www.shoplocalaustralia.com.au/</t>
+  </si>
+  <si>
+    <t>https://www.shoplocalaustralia.com.au/victoria/dandenong-south/utilities/applied-industrial-printing-pty-ltd</t>
+  </si>
+  <si>
+    <t>https://www.sold.com.au/</t>
+  </si>
+  <si>
+    <t>https://www.sold.com.au/dandenong-south/sample-category/applied-industrial-printing-pty-ltd</t>
+  </si>
+  <si>
+    <t>https://www.auseka.com.au/</t>
+  </si>
+  <si>
+    <t>https://www.auseka.com.au/victoria/dandenong-south/business-services/applied-industrial-printing-pty-ltd</t>
+  </si>
 </sst>
 </file>
 
@@ -515,7 +607,7 @@
     <numFmt numFmtId="165" formatCode="[h]:mm"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -693,6 +785,24 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242F33"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1124,15 +1234,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="230">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1385,9 +1496,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1452,9 +1560,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="21" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1463,6 +1568,68 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="21" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1597,16 +1764,38 @@
     <xf numFmtId="0" fontId="16" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 4" xfId="3"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -3129,15 +3318,15 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="168" t="s">
+      <c r="G9" s="194" t="s">
         <v>94</v>
       </c>
-      <c r="H9" s="169"/>
-      <c r="I9" s="169"/>
-      <c r="J9" s="169"/>
-      <c r="K9" s="169"/>
-      <c r="L9" s="169"/>
-      <c r="M9" s="170"/>
+      <c r="H9" s="195"/>
+      <c r="I9" s="195"/>
+      <c r="J9" s="195"/>
+      <c r="K9" s="195"/>
+      <c r="L9" s="195"/>
+      <c r="M9" s="196"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -3159,13 +3348,13 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="171"/>
-      <c r="H10" s="172"/>
-      <c r="I10" s="172"/>
-      <c r="J10" s="172"/>
-      <c r="K10" s="172"/>
-      <c r="L10" s="172"/>
-      <c r="M10" s="173"/>
+      <c r="G10" s="197"/>
+      <c r="H10" s="198"/>
+      <c r="I10" s="198"/>
+      <c r="J10" s="198"/>
+      <c r="K10" s="198"/>
+      <c r="L10" s="198"/>
+      <c r="M10" s="199"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -3243,17 +3432,17 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="174" t="s">
+      <c r="G13" s="200" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="160"/>
-      <c r="I13" s="160"/>
-      <c r="J13" s="160"/>
-      <c r="K13" s="174" t="s">
+      <c r="H13" s="186"/>
+      <c r="I13" s="186"/>
+      <c r="J13" s="186"/>
+      <c r="K13" s="200" t="s">
         <v>0</v>
       </c>
-      <c r="L13" s="160"/>
-      <c r="M13" s="175"/>
+      <c r="L13" s="186"/>
+      <c r="M13" s="201"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -3275,17 +3464,17 @@
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
-      <c r="G14" s="176" t="s">
+      <c r="G14" s="202" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="177"/>
-      <c r="I14" s="177"/>
-      <c r="J14" s="178"/>
-      <c r="K14" s="179" t="s">
+      <c r="H14" s="203"/>
+      <c r="I14" s="203"/>
+      <c r="J14" s="204"/>
+      <c r="K14" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="180"/>
-      <c r="M14" s="181"/>
+      <c r="L14" s="206"/>
+      <c r="M14" s="207"/>
       <c r="N14" s="21"/>
       <c r="O14" s="21"/>
       <c r="P14" s="21"/>
@@ -3307,17 +3496,17 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="162" t="s">
+      <c r="G15" s="188" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="163"/>
-      <c r="I15" s="163"/>
-      <c r="J15" s="164"/>
-      <c r="K15" s="165" t="s">
+      <c r="H15" s="189"/>
+      <c r="I15" s="189"/>
+      <c r="J15" s="190"/>
+      <c r="K15" s="191" t="s">
         <v>1</v>
       </c>
-      <c r="L15" s="166"/>
-      <c r="M15" s="167"/>
+      <c r="L15" s="192"/>
+      <c r="M15" s="193"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -3339,17 +3528,17 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="152" t="s">
+      <c r="G16" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="H16" s="153"/>
-      <c r="I16" s="153"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="155" t="s">
+      <c r="H16" s="179"/>
+      <c r="I16" s="179"/>
+      <c r="J16" s="180"/>
+      <c r="K16" s="181" t="s">
         <v>1</v>
       </c>
-      <c r="L16" s="156"/>
-      <c r="M16" s="157"/>
+      <c r="L16" s="182"/>
+      <c r="M16" s="183"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -3371,17 +3560,17 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="159" t="s">
+      <c r="G17" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="H17" s="160"/>
-      <c r="I17" s="160"/>
-      <c r="J17" s="160"/>
-      <c r="K17" s="161" t="s">
+      <c r="H17" s="186"/>
+      <c r="I17" s="186"/>
+      <c r="J17" s="186"/>
+      <c r="K17" s="187" t="s">
         <v>1</v>
       </c>
-      <c r="L17" s="161"/>
-      <c r="M17" s="161"/>
+      <c r="L17" s="187"/>
+      <c r="M17" s="187"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -3403,17 +3592,17 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="146" t="s">
+      <c r="G18" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="147"/>
-      <c r="I18" s="147"/>
-      <c r="J18" s="148"/>
-      <c r="K18" s="158" t="s">
+      <c r="H18" s="173"/>
+      <c r="I18" s="173"/>
+      <c r="J18" s="174"/>
+      <c r="K18" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="L18" s="158"/>
-      <c r="M18" s="158"/>
+      <c r="L18" s="184"/>
+      <c r="M18" s="184"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -3435,17 +3624,17 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="146" t="s">
+      <c r="G19" s="172" t="s">
         <v>77</v>
       </c>
-      <c r="H19" s="147"/>
-      <c r="I19" s="147"/>
-      <c r="J19" s="148"/>
-      <c r="K19" s="149" t="s">
+      <c r="H19" s="173"/>
+      <c r="I19" s="173"/>
+      <c r="J19" s="174"/>
+      <c r="K19" s="175" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="149"/>
-      <c r="M19" s="149"/>
+      <c r="L19" s="175"/>
+      <c r="M19" s="175"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -3467,17 +3656,17 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="146" t="s">
+      <c r="G20" s="172" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
-      <c r="K20" s="149" t="s">
+      <c r="H20" s="173"/>
+      <c r="I20" s="173"/>
+      <c r="J20" s="174"/>
+      <c r="K20" s="175" t="s">
         <v>1</v>
       </c>
-      <c r="L20" s="149"/>
-      <c r="M20" s="149"/>
+      <c r="L20" s="175"/>
+      <c r="M20" s="175"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -3499,17 +3688,17 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="146" t="s">
+      <c r="G21" s="172" t="s">
         <v>26</v>
       </c>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="147"/>
-      <c r="K21" s="150" t="s">
+      <c r="H21" s="173"/>
+      <c r="I21" s="173"/>
+      <c r="J21" s="173"/>
+      <c r="K21" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="L21" s="151"/>
-      <c r="M21" s="151"/>
+      <c r="L21" s="177"/>
+      <c r="M21" s="177"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -3531,17 +3720,17 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="146" t="s">
+      <c r="G22" s="172" t="s">
         <v>27</v>
       </c>
-      <c r="H22" s="147"/>
-      <c r="I22" s="147"/>
-      <c r="J22" s="147"/>
-      <c r="K22" s="150" t="s">
+      <c r="H22" s="173"/>
+      <c r="I22" s="173"/>
+      <c r="J22" s="173"/>
+      <c r="K22" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="L22" s="151"/>
-      <c r="M22" s="151"/>
+      <c r="L22" s="177"/>
+      <c r="M22" s="177"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -3563,17 +3752,17 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="146" t="s">
+      <c r="G23" s="172" t="s">
         <v>10</v>
       </c>
-      <c r="H23" s="147"/>
-      <c r="I23" s="147"/>
-      <c r="J23" s="147"/>
-      <c r="K23" s="150" t="s">
+      <c r="H23" s="173"/>
+      <c r="I23" s="173"/>
+      <c r="J23" s="173"/>
+      <c r="K23" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="L23" s="151"/>
-      <c r="M23" s="151"/>
+      <c r="L23" s="177"/>
+      <c r="M23" s="177"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -9885,11 +10074,11 @@
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="195" t="s">
+      <c r="C7" s="221" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="160"/>
-      <c r="E7" s="175"/>
+      <c r="D7" s="186"/>
+      <c r="E7" s="201"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -9915,9 +10104,9 @@
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="196"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="164"/>
+      <c r="C8" s="222"/>
+      <c r="D8" s="189"/>
+      <c r="E8" s="190"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -9999,11 +10188,11 @@
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="194">
+      <c r="C11" s="220">
         <v>43580</v>
       </c>
-      <c r="D11" s="153"/>
-      <c r="E11" s="153"/>
+      <c r="D11" s="179"/>
+      <c r="E11" s="179"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -16688,9 +16877,9 @@
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:AA992"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16884,16 +17073,16 @@
     <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
-      <c r="C7" s="189" t="s">
+      <c r="C7" s="215" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="182"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="182"/>
-      <c r="G7" s="182"/>
-      <c r="H7" s="182"/>
-      <c r="I7" s="182"/>
-      <c r="J7" s="182"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="208"/>
+      <c r="H7" s="208"/>
+      <c r="I7" s="208"/>
+      <c r="J7" s="208"/>
       <c r="K7" s="21"/>
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
@@ -16915,14 +17104,14 @@
     <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="182"/>
-      <c r="E8" s="182"/>
-      <c r="F8" s="182"/>
-      <c r="G8" s="182"/>
-      <c r="H8" s="182"/>
-      <c r="I8" s="182"/>
-      <c r="J8" s="182"/>
+      <c r="C8" s="215"/>
+      <c r="D8" s="208"/>
+      <c r="E8" s="208"/>
+      <c r="F8" s="208"/>
+      <c r="G8" s="208"/>
+      <c r="H8" s="208"/>
+      <c r="I8" s="208"/>
+      <c r="J8" s="208"/>
       <c r="K8" s="21"/>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
@@ -17002,14 +17191,14 @@
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="21"/>
-      <c r="C11" s="190"/>
-      <c r="D11" s="191"/>
-      <c r="E11" s="191"/>
-      <c r="F11" s="191"/>
-      <c r="G11" s="191"/>
-      <c r="H11" s="191"/>
-      <c r="I11" s="191"/>
-      <c r="J11" s="191"/>
+      <c r="C11" s="216"/>
+      <c r="D11" s="217"/>
+      <c r="E11" s="217"/>
+      <c r="F11" s="217"/>
+      <c r="G11" s="217"/>
+      <c r="H11" s="217"/>
+      <c r="I11" s="217"/>
+      <c r="J11" s="217"/>
       <c r="K11" s="21"/>
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
@@ -17137,13 +17326,27 @@
       <c r="C15" s="79">
         <v>1</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
+      <c r="D15" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="E15" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="112" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="H15" s="138" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="112" t="s">
+        <v>173</v>
+      </c>
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
@@ -18799,16 +19002,16 @@
     <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
-      <c r="C7" s="189" t="s">
+      <c r="C7" s="215" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="182"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="182"/>
-      <c r="G7" s="182"/>
-      <c r="H7" s="182"/>
-      <c r="I7" s="182"/>
-      <c r="J7" s="182"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="208"/>
+      <c r="H7" s="208"/>
+      <c r="I7" s="208"/>
+      <c r="J7" s="208"/>
       <c r="K7" s="21"/>
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
@@ -18830,14 +19033,14 @@
     <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="182"/>
-      <c r="E8" s="182"/>
-      <c r="F8" s="182"/>
-      <c r="G8" s="182"/>
-      <c r="H8" s="182"/>
-      <c r="I8" s="182"/>
-      <c r="J8" s="182"/>
+      <c r="C8" s="215"/>
+      <c r="D8" s="208"/>
+      <c r="E8" s="208"/>
+      <c r="F8" s="208"/>
+      <c r="G8" s="208"/>
+      <c r="H8" s="208"/>
+      <c r="I8" s="208"/>
+      <c r="J8" s="208"/>
       <c r="K8" s="21"/>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
@@ -18917,14 +19120,14 @@
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="39"/>
       <c r="B11" s="39"/>
-      <c r="C11" s="190"/>
-      <c r="D11" s="191"/>
-      <c r="E11" s="191"/>
-      <c r="F11" s="191"/>
-      <c r="G11" s="191"/>
-      <c r="H11" s="191"/>
-      <c r="I11" s="191"/>
-      <c r="J11" s="191"/>
+      <c r="C11" s="216"/>
+      <c r="D11" s="217"/>
+      <c r="E11" s="217"/>
+      <c r="F11" s="217"/>
+      <c r="G11" s="217"/>
+      <c r="H11" s="217"/>
+      <c r="I11" s="217"/>
+      <c r="J11" s="217"/>
       <c r="K11" s="39"/>
       <c r="L11" s="39"/>
       <c r="M11" s="39"/>
@@ -19105,7 +19308,7 @@
       <c r="F16" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="G16" s="120" t="s">
+      <c r="G16" s="119" t="s">
         <v>121</v>
       </c>
       <c r="H16" s="39" t="s">
@@ -20610,18 +20813,6 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
@@ -20812,10 +21003,10 @@
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
-      <c r="E7" s="197" t="s">
+      <c r="E7" s="223" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="182"/>
+      <c r="F7" s="208"/>
       <c r="G7" s="68"/>
       <c r="H7" s="68"/>
       <c r="I7" s="68"/>
@@ -20841,8 +21032,8 @@
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
-      <c r="E8" s="198"/>
-      <c r="F8" s="199"/>
+      <c r="E8" s="224"/>
+      <c r="F8" s="225"/>
       <c r="G8" s="69"/>
       <c r="H8" s="69"/>
       <c r="I8" s="69"/>
@@ -21180,7 +21371,7 @@
       <c r="B18" s="18"/>
       <c r="C18" s="1"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="200">
+      <c r="E18" s="226">
         <v>1</v>
       </c>
       <c r="F18" s="48" t="s">
@@ -21215,7 +21406,7 @@
       <c r="B19" s="18"/>
       <c r="C19" s="1"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="201"/>
+      <c r="E19" s="227"/>
       <c r="F19" s="48" t="s">
         <v>87</v>
       </c>
@@ -21250,10 +21441,10 @@
       <c r="B20" s="18"/>
       <c r="C20" s="1"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="202" t="s">
+      <c r="E20" s="228" t="s">
         <v>73</v>
       </c>
-      <c r="F20" s="203"/>
+      <c r="F20" s="229"/>
       <c r="G20" s="67">
         <f>SUM(G18+G19)</f>
         <v>0.33333333333333331</v>
@@ -27320,9 +27511,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -27497,10 +27688,10 @@
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
       <c r="C7" s="25"/>
-      <c r="D7" s="182" t="s">
+      <c r="D7" s="208" t="s">
         <v>94</v>
       </c>
-      <c r="E7" s="182"/>
+      <c r="E7" s="208"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
       <c r="H7" s="21"/>
@@ -27525,8 +27716,8 @@
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
       <c r="C8" s="25"/>
-      <c r="D8" s="182"/>
-      <c r="E8" s="182"/>
+      <c r="D8" s="208"/>
+      <c r="E8" s="208"/>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
       <c r="H8" s="21"/>
@@ -27603,10 +27794,10 @@
       <c r="A11" s="39"/>
       <c r="B11" s="39"/>
       <c r="C11" s="39"/>
-      <c r="D11" s="183" t="s">
+      <c r="D11" s="209" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="184"/>
+      <c r="E11" s="210"/>
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
       <c r="H11" s="39"/>
@@ -27664,7 +27855,7 @@
       <c r="D13" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="140" t="s">
+      <c r="E13" s="139" t="s">
         <v>95</v>
       </c>
       <c r="F13" s="39"/>
@@ -27929,10 +28120,10 @@
       <c r="A22" s="39"/>
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
-      <c r="D22" s="187" t="s">
+      <c r="D22" s="213" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="187"/>
+      <c r="E22" s="213"/>
       <c r="F22" s="39"/>
       <c r="G22" s="39"/>
       <c r="H22" s="39"/>
@@ -28083,10 +28274,10 @@
       <c r="A28" s="39"/>
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
-      <c r="D28" s="185" t="s">
+      <c r="D28" s="211" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="188"/>
+      <c r="E28" s="214"/>
       <c r="F28" s="39"/>
       <c r="G28" s="39"/>
       <c r="H28" s="39"/>
@@ -28107,8 +28298,8 @@
       <c r="A29" s="39"/>
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
-      <c r="D29" s="185"/>
-      <c r="E29" s="188"/>
+      <c r="D29" s="211"/>
+      <c r="E29" s="214"/>
       <c r="F29" s="39"/>
       <c r="G29" s="39"/>
       <c r="H29" s="39"/>
@@ -28201,10 +28392,10 @@
       <c r="A33" s="39"/>
       <c r="B33" s="39"/>
       <c r="C33" s="39"/>
-      <c r="D33" s="186" t="s">
+      <c r="D33" s="212" t="s">
         <v>52</v>
       </c>
-      <c r="E33" s="186"/>
+      <c r="E33" s="212"/>
       <c r="F33" s="39"/>
       <c r="G33" s="39"/>
       <c r="H33" s="39"/>
@@ -28407,8 +28598,8 @@
       <c r="A41" s="39"/>
       <c r="B41" s="39"/>
       <c r="C41" s="39"/>
-      <c r="D41" s="186"/>
-      <c r="E41" s="186"/>
+      <c r="D41" s="212"/>
+      <c r="E41" s="212"/>
       <c r="F41" s="39"/>
       <c r="G41" s="39"/>
       <c r="H41" s="39"/>
@@ -30944,9 +31135,9 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:AB955"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomLeft" activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -31150,17 +31341,17 @@
     <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
-      <c r="C7" s="189" t="s">
+      <c r="C7" s="215" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="182"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="182"/>
-      <c r="G7" s="182"/>
-      <c r="H7" s="182"/>
-      <c r="I7" s="182"/>
-      <c r="J7" s="182"/>
-      <c r="K7" s="182"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="208"/>
+      <c r="H7" s="208"/>
+      <c r="I7" s="208"/>
+      <c r="J7" s="208"/>
+      <c r="K7" s="208"/>
       <c r="L7" s="39"/>
       <c r="M7" s="39"/>
       <c r="N7" s="39"/>
@@ -31182,15 +31373,15 @@
     <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="182"/>
-      <c r="E8" s="182"/>
-      <c r="F8" s="182"/>
-      <c r="G8" s="182"/>
-      <c r="H8" s="182"/>
-      <c r="I8" s="182"/>
-      <c r="J8" s="182"/>
-      <c r="K8" s="182"/>
+      <c r="C8" s="215"/>
+      <c r="D8" s="208"/>
+      <c r="E8" s="208"/>
+      <c r="F8" s="208"/>
+      <c r="G8" s="208"/>
+      <c r="H8" s="208"/>
+      <c r="I8" s="208"/>
+      <c r="J8" s="208"/>
+      <c r="K8" s="208"/>
       <c r="L8" s="39"/>
       <c r="M8" s="39"/>
       <c r="N8" s="39"/>
@@ -31272,15 +31463,15 @@
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="39"/>
       <c r="B11" s="39"/>
-      <c r="C11" s="190"/>
-      <c r="D11" s="191"/>
-      <c r="E11" s="191"/>
-      <c r="F11" s="191"/>
-      <c r="G11" s="191"/>
-      <c r="H11" s="191"/>
-      <c r="I11" s="191"/>
-      <c r="J11" s="191"/>
-      <c r="K11" s="191"/>
+      <c r="C11" s="216"/>
+      <c r="D11" s="217"/>
+      <c r="E11" s="217"/>
+      <c r="F11" s="217"/>
+      <c r="G11" s="217"/>
+      <c r="H11" s="217"/>
+      <c r="I11" s="217"/>
+      <c r="J11" s="217"/>
+      <c r="K11" s="217"/>
       <c r="L11" s="39"/>
       <c r="M11" s="39"/>
       <c r="N11" s="39"/>
@@ -31338,7 +31529,7 @@
       <c r="D13" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="131" t="s">
+      <c r="E13" s="130" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="34" t="s">
@@ -31384,7 +31575,7 @@
       <c r="B14" s="39"/>
       <c r="C14" s="103"/>
       <c r="D14" s="103"/>
-      <c r="E14" s="134"/>
+      <c r="E14" s="133"/>
       <c r="F14" s="104"/>
       <c r="G14" s="104"/>
       <c r="H14" s="105"/>
@@ -31411,14 +31602,14 @@
     </row>
     <row r="15" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="39"/>
-      <c r="B15" s="113"/>
+      <c r="B15" s="112"/>
       <c r="C15" s="91">
         <v>1</v>
       </c>
       <c r="D15" s="72">
         <v>44615</v>
       </c>
-      <c r="E15" s="130" t="s">
+      <c r="E15" s="129" t="s">
         <v>88</v>
       </c>
       <c r="F15" s="76" t="s">
@@ -31459,14 +31650,14 @@
     </row>
     <row r="16" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="39"/>
-      <c r="B16" s="113"/>
+      <c r="B16" s="112"/>
       <c r="C16" s="91">
         <v>2</v>
       </c>
       <c r="D16" s="72">
         <v>44615</v>
       </c>
-      <c r="E16" s="130" t="s">
+      <c r="E16" s="129" t="s">
         <v>84</v>
       </c>
       <c r="F16" s="76" t="s">
@@ -31507,14 +31698,14 @@
     </row>
     <row r="17" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="39"/>
-      <c r="B17" s="113"/>
+      <c r="B17" s="112"/>
       <c r="C17" s="91">
         <v>3</v>
       </c>
       <c r="D17" s="72">
         <v>44615</v>
       </c>
-      <c r="E17" s="130" t="s">
+      <c r="E17" s="129" t="s">
         <v>89</v>
       </c>
       <c r="F17" s="76" t="s">
@@ -31553,14 +31744,14 @@
     </row>
     <row r="18" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="39"/>
-      <c r="B18" s="113"/>
+      <c r="B18" s="112"/>
       <c r="C18" s="91">
         <v>4</v>
       </c>
       <c r="D18" s="72">
         <v>44615</v>
       </c>
-      <c r="E18" s="130" t="s">
+      <c r="E18" s="129" t="s">
         <v>90</v>
       </c>
       <c r="F18" s="76" t="s">
@@ -31596,13 +31787,13 @@
     <row r="19" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="39"/>
       <c r="B19" s="39"/>
-      <c r="C19" s="109">
+      <c r="C19" s="108">
         <v>5</v>
       </c>
-      <c r="D19" s="110">
+      <c r="D19" s="109">
         <v>44615</v>
       </c>
-      <c r="E19" s="135" t="s">
+      <c r="E19" s="134" t="s">
         <v>91</v>
       </c>
       <c r="F19" s="76" t="s">
@@ -31614,10 +31805,10 @@
       <c r="H19" s="89" t="s">
         <v>108</v>
       </c>
-      <c r="I19" s="111"/>
-      <c r="J19" s="111"/>
-      <c r="K19" s="112"/>
-      <c r="L19" s="111"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="111"/>
+      <c r="L19" s="110"/>
       <c r="M19" s="75"/>
       <c r="N19" s="39"/>
       <c r="O19" s="39"/>
@@ -31636,13 +31827,13 @@
       <c r="AB19" s="39"/>
     </row>
     <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="115">
+      <c r="C20" s="114">
         <v>6</v>
       </c>
-      <c r="D20" s="116">
+      <c r="D20" s="115">
         <v>44623</v>
       </c>
-      <c r="E20" s="117" t="s">
+      <c r="E20" s="116" t="s">
         <v>107</v>
       </c>
       <c r="F20" s="76" t="s">
@@ -31660,19 +31851,19 @@
       <c r="J20" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="K20" s="114" t="s">
+      <c r="K20" s="113" t="s">
         <v>110</v>
       </c>
-      <c r="L20" s="114"/>
+      <c r="L20" s="113"/>
     </row>
     <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="115">
+      <c r="C21" s="114">
         <v>7</v>
       </c>
-      <c r="D21" s="116">
+      <c r="D21" s="115">
         <v>44623</v>
       </c>
-      <c r="E21" s="132" t="s">
+      <c r="E21" s="131" t="s">
         <v>124</v>
       </c>
       <c r="F21" s="76" t="s">
@@ -31690,19 +31881,19 @@
       <c r="J21" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="K21" s="114" t="s">
+      <c r="K21" s="113" t="s">
         <v>125</v>
       </c>
-      <c r="L21" s="114"/>
+      <c r="L21" s="113"/>
     </row>
     <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="119">
+      <c r="C22" s="118">
         <v>8</v>
       </c>
-      <c r="D22" s="116">
+      <c r="D22" s="115">
         <v>44623</v>
       </c>
-      <c r="E22" s="135" t="s">
+      <c r="E22" s="134" t="s">
         <v>127</v>
       </c>
       <c r="F22" s="76" t="s">
@@ -31720,18 +31911,18 @@
       <c r="J22" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="K22" s="118" t="s">
+      <c r="K22" s="117" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="115">
+      <c r="C23" s="114">
         <v>9</v>
       </c>
-      <c r="D23" s="116">
+      <c r="D23" s="115">
         <v>44623</v>
       </c>
-      <c r="E23" s="133" t="s">
+      <c r="E23" s="132" t="s">
         <v>112</v>
       </c>
       <c r="F23" s="76" t="s">
@@ -31749,118 +31940,247 @@
       <c r="J23" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="K23" s="114" t="s">
+      <c r="K23" s="113" t="s">
         <v>113</v>
       </c>
-      <c r="L23" s="114"/>
+      <c r="L23" s="113"/>
     </row>
     <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="119">
+      <c r="C24" s="118">
         <v>10</v>
       </c>
-      <c r="D24" s="142">
+      <c r="D24" s="140">
         <v>44627</v>
       </c>
-      <c r="E24" s="141" t="s">
+      <c r="E24" s="112" t="s">
         <v>148</v>
       </c>
-      <c r="F24" s="143" t="s">
+      <c r="F24" s="141" t="s">
         <v>105</v>
       </c>
       <c r="G24" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="H24" s="144" t="s">
+      <c r="H24" s="142" t="s">
         <v>108</v>
       </c>
       <c r="I24" s="106" t="s">
         <v>99</v>
       </c>
-      <c r="J24" s="145" t="s">
+      <c r="J24" s="143" t="s">
         <v>101</v>
       </c>
-      <c r="K24" s="118" t="s">
+      <c r="K24" s="117" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="119">
+      <c r="C25" s="118">
         <v>11</v>
       </c>
-      <c r="D25" s="142">
+      <c r="D25" s="140">
         <v>44627</v>
       </c>
-      <c r="E25" s="204" t="s">
+      <c r="E25" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="F25" s="143" t="s">
+      <c r="F25" s="141" t="s">
         <v>105</v>
       </c>
       <c r="G25" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="H25" s="144" t="s">
+      <c r="H25" s="142" t="s">
         <v>108</v>
       </c>
       <c r="I25" s="106" t="s">
         <v>99</v>
       </c>
-      <c r="J25" s="145" t="s">
+      <c r="J25" s="143" t="s">
         <v>101</v>
       </c>
-      <c r="K25" s="118" t="s">
+      <c r="K25" s="117" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="119">
+      <c r="C26" s="118">
         <v>12</v>
       </c>
-      <c r="D26" s="142">
+      <c r="D26" s="140">
         <v>44628</v>
       </c>
-      <c r="E26" s="118" t="s">
+      <c r="E26" s="117" t="s">
         <v>152</v>
       </c>
-      <c r="F26" s="143" t="s">
+      <c r="F26" s="141" t="s">
         <v>105</v>
       </c>
       <c r="G26" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="H26" s="144" t="s">
+      <c r="H26" s="142" t="s">
         <v>108</v>
       </c>
       <c r="I26" s="106" t="s">
         <v>99</v>
       </c>
-      <c r="J26" s="145" t="s">
+      <c r="J26" s="143" t="s">
         <v>101</v>
       </c>
-      <c r="K26" s="118" t="s">
+      <c r="K26" s="117" t="s">
         <v>153</v>
       </c>
-      <c r="L26" s="114"/>
+      <c r="L26" s="113"/>
     </row>
     <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="115">
+      <c r="C27" s="118">
         <v>13</v>
       </c>
-      <c r="D27" s="116">
+      <c r="D27" s="140">
         <v>44628</v>
       </c>
-      <c r="E27" s="114"/>
-      <c r="F27" s="114"/>
-      <c r="G27" s="114"/>
-      <c r="H27" s="114"/>
-      <c r="I27" s="114"/>
-      <c r="J27" s="114"/>
-      <c r="K27" s="114"/>
-    </row>
-    <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="E27" s="117" t="s">
+        <v>154</v>
+      </c>
+      <c r="F27" s="141" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27" s="106" t="s">
+        <v>95</v>
+      </c>
+      <c r="H27" s="142" t="s">
+        <v>108</v>
+      </c>
+      <c r="I27" s="112" t="s">
+        <v>99</v>
+      </c>
+      <c r="J27" s="117" t="s">
+        <v>156</v>
+      </c>
+      <c r="K27" s="117" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="114">
+        <v>14</v>
+      </c>
+      <c r="D28" s="115">
+        <v>44634</v>
+      </c>
+      <c r="E28" s="75" t="s">
+        <v>177</v>
+      </c>
+      <c r="F28" s="141" t="s">
+        <v>105</v>
+      </c>
+      <c r="G28" s="106" t="s">
+        <v>95</v>
+      </c>
+      <c r="H28" s="142" t="s">
+        <v>108</v>
+      </c>
+      <c r="I28" s="113" t="s">
+        <v>99</v>
+      </c>
+      <c r="J28" s="143" t="s">
+        <v>101</v>
+      </c>
+      <c r="K28" s="113" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="114">
+        <v>15</v>
+      </c>
+      <c r="D29" s="115">
+        <v>44634</v>
+      </c>
+      <c r="E29" s="171" t="s">
+        <v>179</v>
+      </c>
+      <c r="F29" s="141" t="s">
+        <v>105</v>
+      </c>
+      <c r="G29" s="106" t="s">
+        <v>95</v>
+      </c>
+      <c r="H29" s="142" t="s">
+        <v>108</v>
+      </c>
+      <c r="I29" s="113" t="s">
+        <v>99</v>
+      </c>
+      <c r="J29" s="143" t="s">
+        <v>101</v>
+      </c>
+      <c r="K29" s="113" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="170">
+        <v>16</v>
+      </c>
+      <c r="D30" s="115">
+        <v>44634</v>
+      </c>
+      <c r="E30" s="75" t="s">
+        <v>181</v>
+      </c>
+      <c r="F30" s="141" t="s">
+        <v>105</v>
+      </c>
+      <c r="G30" s="106" t="s">
+        <v>95</v>
+      </c>
+      <c r="H30" s="142" t="s">
+        <v>108</v>
+      </c>
+      <c r="I30" s="113" t="s">
+        <v>99</v>
+      </c>
+      <c r="J30" s="143" t="s">
+        <v>101</v>
+      </c>
+      <c r="K30" s="169" t="s">
+        <v>182</v>
+      </c>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+    </row>
+    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="170">
+        <v>17</v>
+      </c>
+      <c r="D31" s="115">
+        <v>44634</v>
+      </c>
+      <c r="E31" s="75" t="s">
+        <v>183</v>
+      </c>
+      <c r="F31" s="141" t="s">
+        <v>105</v>
+      </c>
+      <c r="G31" s="106" t="s">
+        <v>95</v>
+      </c>
+      <c r="H31" s="142" t="s">
+        <v>108</v>
+      </c>
+      <c r="I31" s="113" t="s">
+        <v>5</v>
+      </c>
+      <c r="J31" s="143" t="s">
+        <v>101</v>
+      </c>
+      <c r="K31" s="113" t="s">
+        <v>184</v>
+      </c>
+    </row>
     <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -32790,15 +33110,16 @@
     <mergeCell ref="C7:K8"/>
     <mergeCell ref="C11:K11"/>
   </mergeCells>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E19" r:id="rId1"/>
     <hyperlink ref="E22" r:id="rId2" display="K&amp;Co Events- Offsite SEO - v2 - onsite offsite report  14th Feb. - 18th Feb. 2022.xlsx"/>
-    <hyperlink ref="E24" r:id="rId3"/>
-    <hyperlink ref="E25" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId5"/>
-  <drawing r:id="rId6"/>
+  <pageSetup orientation="landscape" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -32807,9 +33128,9 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:AB922"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -33011,17 +33332,17 @@
     <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="189" t="s">
+      <c r="C7" s="215" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="182"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="182"/>
-      <c r="G7" s="182"/>
-      <c r="H7" s="182"/>
-      <c r="I7" s="182"/>
-      <c r="J7" s="182"/>
-      <c r="K7" s="182"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="208"/>
+      <c r="H7" s="208"/>
+      <c r="I7" s="208"/>
+      <c r="J7" s="208"/>
+      <c r="K7" s="208"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -33043,15 +33364,15 @@
     <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="182"/>
-      <c r="E8" s="182"/>
-      <c r="F8" s="182"/>
-      <c r="G8" s="182"/>
-      <c r="H8" s="182"/>
-      <c r="I8" s="182"/>
-      <c r="J8" s="182"/>
-      <c r="K8" s="182"/>
+      <c r="C8" s="215"/>
+      <c r="D8" s="208"/>
+      <c r="E8" s="208"/>
+      <c r="F8" s="208"/>
+      <c r="G8" s="208"/>
+      <c r="H8" s="208"/>
+      <c r="I8" s="208"/>
+      <c r="J8" s="208"/>
+      <c r="K8" s="208"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -33133,15 +33454,15 @@
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="190"/>
-      <c r="D11" s="191"/>
-      <c r="E11" s="191"/>
-      <c r="F11" s="191"/>
-      <c r="G11" s="191"/>
-      <c r="H11" s="191"/>
-      <c r="I11" s="191"/>
-      <c r="J11" s="191"/>
-      <c r="K11" s="191"/>
+      <c r="C11" s="216"/>
+      <c r="D11" s="217"/>
+      <c r="E11" s="217"/>
+      <c r="F11" s="217"/>
+      <c r="G11" s="217"/>
+      <c r="H11" s="217"/>
+      <c r="I11" s="217"/>
+      <c r="J11" s="217"/>
+      <c r="K11" s="217"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -33243,11 +33564,11 @@
       <c r="B14" s="1"/>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
-      <c r="E14" s="136"/>
+      <c r="E14" s="135"/>
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
       <c r="H14" s="27"/>
-      <c r="I14" s="113"/>
+      <c r="I14" s="112"/>
       <c r="J14" s="23"/>
       <c r="K14" s="23"/>
       <c r="L14" s="1"/>
@@ -33283,7 +33604,7 @@
       <c r="F15" s="71"/>
       <c r="G15" s="73"/>
       <c r="H15" s="75"/>
-      <c r="I15" s="113" t="s">
+      <c r="I15" s="112" t="s">
         <v>99</v>
       </c>
       <c r="J15" s="75" t="s">
@@ -33329,7 +33650,7 @@
       <c r="H16" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="I16" s="113" t="s">
+      <c r="I16" s="112" t="s">
         <v>99</v>
       </c>
       <c r="J16" s="73" t="s">
@@ -33365,7 +33686,7 @@
       <c r="D17" s="72">
         <v>44623</v>
       </c>
-      <c r="E17" s="133" t="s">
+      <c r="E17" s="132" t="s">
         <v>128</v>
       </c>
       <c r="F17" s="76" t="s">
@@ -33374,10 +33695,10 @@
       <c r="G17" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="H17" s="137" t="s">
+      <c r="H17" s="136" t="s">
         <v>130</v>
       </c>
-      <c r="I17" s="113" t="s">
+      <c r="I17" s="112" t="s">
         <v>99</v>
       </c>
       <c r="J17" s="73" t="s">
@@ -33405,15 +33726,33 @@
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
+      <c r="C18" s="144">
+        <v>4</v>
+      </c>
+      <c r="D18" s="145">
+        <v>44628</v>
+      </c>
+      <c r="E18" s="112" t="s">
+        <v>157</v>
+      </c>
+      <c r="F18" s="141" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="106" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" s="164" t="s">
+        <v>159</v>
+      </c>
+      <c r="I18" s="146" t="s">
+        <v>99</v>
+      </c>
+      <c r="J18" s="147" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="148" t="s">
+        <v>158</v>
+      </c>
       <c r="L18" s="25"/>
       <c r="M18" s="25"/>
       <c r="N18" s="25"/>
@@ -33433,15 +33772,33 @@
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25"/>
       <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
+      <c r="C19" s="150">
+        <v>5</v>
+      </c>
+      <c r="D19" s="161">
+        <v>44628</v>
+      </c>
+      <c r="E19" s="147" t="s">
+        <v>161</v>
+      </c>
+      <c r="F19" s="141" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="106" t="s">
+        <v>95</v>
+      </c>
+      <c r="H19" s="162" t="s">
+        <v>106</v>
+      </c>
+      <c r="I19" s="146" t="s">
+        <v>99</v>
+      </c>
+      <c r="J19" s="163" t="s">
+        <v>120</v>
+      </c>
+      <c r="K19" s="154" t="s">
+        <v>162</v>
+      </c>
       <c r="L19" s="25"/>
       <c r="M19" s="25"/>
       <c r="N19" s="25"/>
@@ -33461,16 +33818,34 @@
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
       <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
+      <c r="C20" s="150">
+        <v>6</v>
+      </c>
+      <c r="D20" s="151">
+        <v>44630</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="F20" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="I20" s="112" t="s">
+        <v>99</v>
+      </c>
+      <c r="J20" s="149" t="s">
+        <v>120</v>
+      </c>
+      <c r="K20" s="112" t="s">
+        <v>173</v>
+      </c>
+      <c r="L20" s="149"/>
       <c r="M20" s="25"/>
       <c r="N20" s="25"/>
       <c r="O20" s="25"/>
@@ -33489,15 +33864,33 @@
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
       <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
+      <c r="C21" s="150">
+        <v>7</v>
+      </c>
+      <c r="D21" s="151">
+        <v>44630</v>
+      </c>
+      <c r="E21" s="165" t="s">
+        <v>175</v>
+      </c>
+      <c r="F21" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="H21" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="I21" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="J21" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="K21" s="149" t="s">
+        <v>176</v>
+      </c>
       <c r="L21" s="25"/>
       <c r="M21" s="25"/>
       <c r="N21" s="25"/>
@@ -41387,11 +41780,14 @@
     <mergeCell ref="C7:K8"/>
   </mergeCells>
   <conditionalFormatting sqref="E16">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="H18" r:id="rId1" display="https://www.reddit.com/user/AppliedIndustrialPri/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="landscape" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -41400,9 +41796,9 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:W972"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -41559,16 +41955,16 @@
       <c r="U6" s="21"/>
     </row>
     <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="189" t="s">
+      <c r="A7" s="215" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="182"/>
-      <c r="C7" s="182"/>
-      <c r="D7" s="182"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="182"/>
-      <c r="G7" s="182"/>
-      <c r="H7" s="182"/>
+      <c r="B7" s="208"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="208"/>
+      <c r="H7" s="208"/>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
       <c r="K7" s="21"/>
@@ -41584,14 +41980,14 @@
       <c r="U7" s="21"/>
     </row>
     <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="189"/>
-      <c r="B8" s="182"/>
-      <c r="C8" s="182"/>
-      <c r="D8" s="182"/>
-      <c r="E8" s="182"/>
-      <c r="F8" s="182"/>
-      <c r="G8" s="182"/>
-      <c r="H8" s="182"/>
+      <c r="A8" s="215"/>
+      <c r="B8" s="208"/>
+      <c r="C8" s="208"/>
+      <c r="D8" s="208"/>
+      <c r="E8" s="208"/>
+      <c r="F8" s="208"/>
+      <c r="G8" s="208"/>
+      <c r="H8" s="208"/>
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
       <c r="K8" s="21"/>
@@ -41655,14 +42051,14 @@
       <c r="W10" s="39"/>
     </row>
     <row r="11" spans="1:23" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="192"/>
-      <c r="B11" s="193"/>
-      <c r="C11" s="193"/>
-      <c r="D11" s="193"/>
-      <c r="E11" s="193"/>
-      <c r="F11" s="193"/>
-      <c r="G11" s="193"/>
-      <c r="H11" s="193"/>
+      <c r="A11" s="218"/>
+      <c r="B11" s="219"/>
+      <c r="C11" s="219"/>
+      <c r="D11" s="219"/>
+      <c r="E11" s="219"/>
+      <c r="F11" s="219"/>
+      <c r="G11" s="219"/>
+      <c r="H11" s="219"/>
       <c r="I11" s="77"/>
       <c r="J11" s="39"/>
       <c r="K11" s="39"/>
@@ -41852,15 +42248,33 @@
       <c r="P16" s="39"/>
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="83"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="75"/>
+      <c r="A17" s="83">
+        <v>4</v>
+      </c>
+      <c r="B17" s="152">
+        <v>44628</v>
+      </c>
+      <c r="C17" s="73" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="153" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="I17" s="73" t="s">
+        <v>160</v>
+      </c>
       <c r="J17" s="39"/>
       <c r="K17" s="39"/>
       <c r="L17" s="39"/>
@@ -41870,15 +42284,33 @@
       <c r="P17" s="39"/>
     </row>
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="83"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="75"/>
+      <c r="A18" s="83">
+        <v>5</v>
+      </c>
+      <c r="B18" s="78">
+        <v>44628</v>
+      </c>
+      <c r="C18" s="76" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="155" t="s">
+        <v>165</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="H18" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" s="75" t="s">
+        <v>164</v>
+      </c>
       <c r="J18" s="39"/>
       <c r="K18" s="39"/>
       <c r="L18" s="39"/>
@@ -42884,9 +43316,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Z970"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -43077,17 +43509,17 @@
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="189" t="s">
+      <c r="B7" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="182"/>
-      <c r="D7" s="182"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="182"/>
-      <c r="G7" s="182"/>
-      <c r="H7" s="182"/>
-      <c r="I7" s="182"/>
-      <c r="J7" s="182"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="208"/>
+      <c r="H7" s="208"/>
+      <c r="I7" s="208"/>
+      <c r="J7" s="208"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -43107,15 +43539,15 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="189"/>
-      <c r="C8" s="182"/>
-      <c r="D8" s="182"/>
-      <c r="E8" s="182"/>
-      <c r="F8" s="182"/>
-      <c r="G8" s="182"/>
-      <c r="H8" s="182"/>
-      <c r="I8" s="182"/>
-      <c r="J8" s="182"/>
+      <c r="B8" s="215"/>
+      <c r="C8" s="208"/>
+      <c r="D8" s="208"/>
+      <c r="E8" s="208"/>
+      <c r="F8" s="208"/>
+      <c r="G8" s="208"/>
+      <c r="H8" s="208"/>
+      <c r="I8" s="208"/>
+      <c r="J8" s="208"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -43191,15 +43623,15 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="190"/>
-      <c r="C11" s="191"/>
-      <c r="D11" s="191"/>
-      <c r="E11" s="191"/>
-      <c r="F11" s="191"/>
-      <c r="G11" s="191"/>
-      <c r="H11" s="191"/>
-      <c r="I11" s="191"/>
-      <c r="J11" s="191"/>
+      <c r="B11" s="216"/>
+      <c r="C11" s="217"/>
+      <c r="D11" s="217"/>
+      <c r="E11" s="217"/>
+      <c r="F11" s="217"/>
+      <c r="G11" s="217"/>
+      <c r="H11" s="217"/>
+      <c r="I11" s="217"/>
+      <c r="J11" s="217"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -43293,16 +43725,16 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="121"/>
-      <c r="C14" s="121"/>
+      <c r="B14" s="120"/>
+      <c r="C14" s="120"/>
       <c r="D14" s="106"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="121"/>
       <c r="G14" s="106"/>
       <c r="H14" s="106"/>
       <c r="I14" s="106"/>
       <c r="J14" s="106"/>
-      <c r="K14" s="123"/>
+      <c r="K14" s="122"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -43320,14 +43752,14 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="124"/>
+      <c r="A15" s="123"/>
       <c r="B15" s="91">
         <v>1</v>
       </c>
       <c r="C15" s="78">
         <v>44775</v>
       </c>
-      <c r="D15" s="113" t="s">
+      <c r="D15" s="112" t="s">
         <v>81</v>
       </c>
       <c r="E15" s="76" t="s">
@@ -43339,27 +43771,27 @@
       <c r="G15" s="89" t="s">
         <v>108</v>
       </c>
-      <c r="H15" s="113" t="s">
+      <c r="H15" s="112" t="s">
         <v>99</v>
       </c>
       <c r="I15" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="J15" s="113" t="s">
+      <c r="J15" s="112" t="s">
         <v>102</v>
       </c>
       <c r="K15" s="92"/>
       <c r="L15" s="94"/>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="124"/>
+      <c r="A16" s="123"/>
       <c r="B16" s="96">
         <v>2</v>
       </c>
       <c r="C16" s="78">
         <v>44775</v>
       </c>
-      <c r="D16" s="113" t="s">
+      <c r="D16" s="112" t="s">
         <v>83</v>
       </c>
       <c r="E16" s="76" t="s">
@@ -43371,27 +43803,27 @@
       <c r="G16" s="89" t="s">
         <v>108</v>
       </c>
-      <c r="H16" s="113" t="s">
+      <c r="H16" s="112" t="s">
         <v>99</v>
       </c>
       <c r="I16" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="J16" s="113" t="s">
+      <c r="J16" s="112" t="s">
         <v>103</v>
       </c>
       <c r="K16" s="46"/>
       <c r="L16" s="94"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="124"/>
+      <c r="A17" s="123"/>
       <c r="B17" s="96">
         <v>3</v>
       </c>
       <c r="C17" s="78">
         <v>44775</v>
       </c>
-      <c r="D17" s="113" t="s">
+      <c r="D17" s="112" t="s">
         <v>85</v>
       </c>
       <c r="E17" s="76" t="s">
@@ -43416,11 +43848,11 @@
       <c r="L17" s="94"/>
     </row>
     <row r="18" spans="1:13" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="124"/>
-      <c r="B18" s="115">
+      <c r="A18" s="123"/>
+      <c r="B18" s="114">
         <v>4</v>
       </c>
-      <c r="C18" s="116">
+      <c r="C18" s="115">
         <v>44623</v>
       </c>
       <c r="D18" s="23" t="s">
@@ -43441,22 +43873,22 @@
       <c r="I18" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="J18" s="114" t="s">
+      <c r="J18" s="113" t="s">
         <v>138</v>
       </c>
-      <c r="K18" s="114"/>
-      <c r="L18" s="126"/>
+      <c r="K18" s="113"/>
+      <c r="L18" s="125"/>
       <c r="M18" s="94"/>
     </row>
     <row r="19" spans="1:13" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="124"/>
+      <c r="A19" s="123"/>
       <c r="B19" s="96">
         <v>5</v>
       </c>
-      <c r="C19" s="127">
+      <c r="C19" s="126">
         <v>44623</v>
       </c>
-      <c r="D19" s="128" t="s">
+      <c r="D19" s="127" t="s">
         <v>139</v>
       </c>
       <c r="E19" s="76" t="s">
@@ -43481,20 +43913,63 @@
       <c r="L19" s="94"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="129"/>
-      <c r="B20" s="96"/>
-      <c r="C20" s="129"/>
-      <c r="D20" s="129"/>
-      <c r="E20" s="129"/>
-      <c r="F20" s="129"/>
-      <c r="G20" s="129"/>
-      <c r="H20" s="129"/>
-      <c r="I20" s="129"/>
-      <c r="J20" s="129"/>
-      <c r="K20" s="129"/>
+      <c r="A20" s="128"/>
+      <c r="B20" s="156">
+        <v>6</v>
+      </c>
+      <c r="C20" s="140">
+        <v>44628</v>
+      </c>
+      <c r="D20" s="73" t="s">
+        <v>161</v>
+      </c>
+      <c r="E20" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="128"/>
+      <c r="H20" s="92" t="s">
+        <v>99</v>
+      </c>
+      <c r="I20" s="149" t="s">
+        <v>120</v>
+      </c>
+      <c r="J20" s="160" t="s">
+        <v>162</v>
+      </c>
+      <c r="K20" s="157"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="B21" s="114">
+        <v>7</v>
+      </c>
+      <c r="C21" s="115">
+        <v>44629</v>
+      </c>
+      <c r="D21" s="76" t="s">
+        <v>166</v>
+      </c>
+      <c r="E21" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="159" t="s">
+        <v>168</v>
+      </c>
+      <c r="H21" s="92" t="s">
+        <v>99</v>
+      </c>
+      <c r="I21" s="92" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21" s="158" t="s">
+        <v>167</v>
+      </c>
+      <c r="K21" s="113" t="s">
         <v>82</v>
       </c>
     </row>
@@ -44452,9 +44927,12 @@
     <mergeCell ref="B11:J11"/>
     <mergeCell ref="B7:J8"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G21" r:id="rId1" display="https://appliedindustri.livejournal.com/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="landscape" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -44667,17 +45145,17 @@
     <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
-      <c r="C7" s="189" t="s">
+      <c r="C7" s="215" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="182"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="182"/>
-      <c r="G7" s="182"/>
-      <c r="H7" s="182"/>
-      <c r="I7" s="182"/>
-      <c r="J7" s="182"/>
-      <c r="K7" s="182"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="208"/>
+      <c r="H7" s="208"/>
+      <c r="I7" s="208"/>
+      <c r="J7" s="208"/>
+      <c r="K7" s="208"/>
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
@@ -44699,15 +45177,15 @@
     <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="182"/>
-      <c r="E8" s="182"/>
-      <c r="F8" s="182"/>
-      <c r="G8" s="182"/>
-      <c r="H8" s="182"/>
-      <c r="I8" s="182"/>
-      <c r="J8" s="182"/>
-      <c r="K8" s="182"/>
+      <c r="C8" s="215"/>
+      <c r="D8" s="208"/>
+      <c r="E8" s="208"/>
+      <c r="F8" s="208"/>
+      <c r="G8" s="208"/>
+      <c r="H8" s="208"/>
+      <c r="I8" s="208"/>
+      <c r="J8" s="208"/>
+      <c r="K8" s="208"/>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
@@ -44789,15 +45267,15 @@
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="39"/>
       <c r="B11" s="39"/>
-      <c r="C11" s="190"/>
-      <c r="D11" s="191"/>
-      <c r="E11" s="191"/>
-      <c r="F11" s="191"/>
-      <c r="G11" s="191"/>
-      <c r="H11" s="191"/>
-      <c r="I11" s="191"/>
-      <c r="J11" s="191"/>
-      <c r="K11" s="191"/>
+      <c r="C11" s="216"/>
+      <c r="D11" s="217"/>
+      <c r="E11" s="217"/>
+      <c r="F11" s="217"/>
+      <c r="G11" s="217"/>
+      <c r="H11" s="217"/>
+      <c r="I11" s="217"/>
+      <c r="J11" s="217"/>
+      <c r="K11" s="217"/>
       <c r="L11" s="77"/>
       <c r="M11" s="39"/>
       <c r="N11" s="39"/>
@@ -46333,9 +46811,9 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:AB986"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14:I16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -46535,17 +47013,17 @@
     <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
-      <c r="C7" s="189" t="s">
+      <c r="C7" s="215" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="182"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="182"/>
-      <c r="G7" s="182"/>
-      <c r="H7" s="182"/>
-      <c r="I7" s="182"/>
-      <c r="J7" s="182"/>
-      <c r="K7" s="182"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="208"/>
+      <c r="H7" s="208"/>
+      <c r="I7" s="208"/>
+      <c r="J7" s="208"/>
+      <c r="K7" s="208"/>
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
@@ -46567,15 +47045,15 @@
     <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="182"/>
-      <c r="E8" s="182"/>
-      <c r="F8" s="182"/>
-      <c r="G8" s="182"/>
-      <c r="H8" s="182"/>
-      <c r="I8" s="182"/>
-      <c r="J8" s="182"/>
-      <c r="K8" s="182"/>
+      <c r="C8" s="215"/>
+      <c r="D8" s="208"/>
+      <c r="E8" s="208"/>
+      <c r="F8" s="208"/>
+      <c r="G8" s="208"/>
+      <c r="H8" s="208"/>
+      <c r="I8" s="208"/>
+      <c r="J8" s="208"/>
+      <c r="K8" s="208"/>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
@@ -46657,15 +47135,15 @@
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="39"/>
       <c r="B11" s="39"/>
-      <c r="C11" s="190"/>
-      <c r="D11" s="191"/>
-      <c r="E11" s="191"/>
-      <c r="F11" s="191"/>
-      <c r="G11" s="191"/>
-      <c r="H11" s="191"/>
-      <c r="I11" s="191"/>
-      <c r="J11" s="191"/>
-      <c r="K11" s="191"/>
+      <c r="C11" s="216"/>
+      <c r="D11" s="217"/>
+      <c r="E11" s="217"/>
+      <c r="F11" s="217"/>
+      <c r="G11" s="217"/>
+      <c r="H11" s="217"/>
+      <c r="I11" s="217"/>
+      <c r="J11" s="217"/>
+      <c r="K11" s="217"/>
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
@@ -46769,9 +47247,9 @@
       <c r="D14" s="33"/>
       <c r="E14" s="30"/>
       <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="166"/>
+      <c r="I14" s="112"/>
       <c r="J14" s="23"/>
       <c r="K14" s="23"/>
       <c r="L14" s="21"/>
@@ -46798,7 +47276,7 @@
       <c r="C15" s="83">
         <v>1</v>
       </c>
-      <c r="D15" s="116">
+      <c r="D15" s="115">
         <v>44623</v>
       </c>
       <c r="E15" s="23" t="s">
@@ -46807,13 +47285,13 @@
       <c r="F15" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="G15" s="108" t="s">
+      <c r="G15" s="112" t="s">
         <v>95</v>
       </c>
-      <c r="H15" s="71" t="s">
+      <c r="H15" s="167" t="s">
         <v>106</v>
       </c>
-      <c r="I15" s="139" t="s">
+      <c r="I15" s="138" t="s">
         <v>99</v>
       </c>
       <c r="J15" s="73" t="s">
@@ -46846,7 +47324,7 @@
       <c r="C16" s="83">
         <v>2</v>
       </c>
-      <c r="D16" s="138">
+      <c r="D16" s="137">
         <v>44623</v>
       </c>
       <c r="E16" s="92" t="s">
@@ -46855,13 +47333,13 @@
       <c r="F16" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="G16" s="108" t="s">
+      <c r="G16" s="112" t="s">
         <v>95</v>
       </c>
-      <c r="H16" s="125" t="s">
+      <c r="H16" s="124" t="s">
         <v>144</v>
       </c>
-      <c r="I16" s="139" t="s">
+      <c r="I16" s="138" t="s">
         <v>99</v>
       </c>
       <c r="J16" s="73" t="s">
@@ -46894,14 +47372,30 @@
       <c r="C17" s="83">
         <v>3</v>
       </c>
-      <c r="D17" s="78"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="75"/>
+      <c r="D17" s="78">
+        <v>44629</v>
+      </c>
+      <c r="E17" s="75" t="s">
+        <v>169</v>
+      </c>
+      <c r="F17" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="112" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="168" t="s">
+        <v>108</v>
+      </c>
+      <c r="I17" s="138" t="s">
+        <v>99</v>
+      </c>
+      <c r="J17" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="75" t="s">
+        <v>170</v>
+      </c>
       <c r="L17" s="39"/>
       <c r="M17" s="39"/>
       <c r="N17" s="39"/>
@@ -46921,14 +47415,30 @@
       <c r="C18" s="83">
         <v>4</v>
       </c>
-      <c r="D18" s="78"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="75"/>
+      <c r="D18" s="78">
+        <v>44629</v>
+      </c>
+      <c r="E18" s="75" t="s">
+        <v>171</v>
+      </c>
+      <c r="F18" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="112" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" s="167" t="s">
+        <v>106</v>
+      </c>
+      <c r="I18" s="138" t="s">
+        <v>99</v>
+      </c>
+      <c r="J18" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="75" t="s">
+        <v>172</v>
+      </c>
       <c r="L18" s="39"/>
       <c r="M18" s="39"/>
       <c r="N18" s="39"/>
@@ -48269,13 +48779,9 @@
     <mergeCell ref="C7:K8"/>
     <mergeCell ref="C11:K11"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="G15" r:id="rId1"/>
-    <hyperlink ref="G16" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -48299,17 +48805,17 @@
     <row r="5" spans="7:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G6" s="1"/>
-      <c r="H6" s="168" t="s">
+      <c r="H6" s="194" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="169"/>
-      <c r="J6" s="169"/>
+      <c r="I6" s="195"/>
+      <c r="J6" s="195"/>
     </row>
     <row r="7" spans="7:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G7" s="1"/>
-      <c r="H7" s="171"/>
-      <c r="I7" s="172"/>
-      <c r="J7" s="172"/>
+      <c r="H7" s="197"/>
+      <c r="I7" s="198"/>
+      <c r="J7" s="198"/>
     </row>
     <row r="8" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G8" s="1"/>
@@ -48325,11 +48831,11 @@
     </row>
     <row r="10" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G10" s="1"/>
-      <c r="H10" s="194">
+      <c r="H10" s="220">
         <v>43580</v>
       </c>
-      <c r="I10" s="153"/>
-      <c r="J10" s="153"/>
+      <c r="I10" s="179"/>
+      <c r="J10" s="179"/>
     </row>
     <row r="12" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G12" s="1"/>
